--- a/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T15:42:28+00:00</t>
+    <t>2024-02-19T18:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:04:21+00:00</t>
+    <t>2024-02-25T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T14:21:10+00:00</t>
+    <t>2024-02-25T15:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T15:41:48+00:00</t>
+    <t>2024-02-26T09:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:09:46+00:00</t>
+    <t>2024-02-26T09:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-party-organization-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:34:45+00:00</t>
+    <t>2024-02-26T09:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
